--- a/uploaded_files/staff_list.xlsx
+++ b/uploaded_files/staff_list.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C0CCED-5699-4A31-A460-AB80537ACFF8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA06329E-BE2D-43EA-8335-8B900C5D6FE3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="182">
   <si>
     <t>staffName</t>
   </si>
@@ -969,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="R64" sqref="R64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1877,6 +1877,9 @@
       <c r="A82" s="2" t="s">
         <v>168</v>
       </c>
+      <c r="B82" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="C82" s="7" t="s">
         <v>169</v>
       </c>
@@ -1885,12 +1888,18 @@
       <c r="A83" s="2" t="s">
         <v>170</v>
       </c>
+      <c r="B83" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="C83" s="7" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C84" s="2" t="s">
